--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VariousDataTypesInTableColumns/output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VariousDataTypesInTableColumns/output.xlsx
@@ -214,49 +214,55 @@
       <x:sharedItems containsBlank="1"/>
     </x:cacheField>
     <x:cacheField name="Numbers with integers">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="2">
+      <x:sharedItems containsSemiMixedTypes="1" containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="2">
         <x:n v="0"/>
         <x:n v="1"/>
+        <x:m/>
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Numers without integers">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.5" maxValue="14.4" count="2">
+      <x:sharedItems containsSemiMixedTypes="1" containsString="0" containsBlank="1" containsNumber="1" minValue="0.5" maxValue="14.4" count="2">
         <x:n v="0.5"/>
         <x:n v="14.4"/>
+        <x:m/>
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Text">
-      <x:sharedItems count="2">
+      <x:sharedItems containsBlank="1" count="2">
         <x:s v="ABC"/>
         <x:s v="def"/>
+        <x:m/>
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Text with long text">
-      <x:sharedItems count="2" longText="1">
+      <x:sharedItems containsBlank="1" count="2" longText="1">
         <x:s v="ABC"/>
         <x:s v="abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyz"/>
+        <x:m/>
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="DateTime">
-      <x:sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-31T16:30:00" maxDate="2020-12-24T00:00:00" count="4">
-        <x:d v="1900-01-01T00:00:00"/>
-        <x:d v="1900-01-01T12:30:00"/>
+      <x:sharedItems containsSemiMixedTypes="1" containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T16:30:00" maxDate="2020-12-24T00:00:00" count="4">
+        <x:d v="1899-12-31T00:00:00"/>
+        <x:d v="1899-12-31T12:30:00"/>
         <x:d v="2020-12-24T00:00:00"/>
-        <x:d v="1899-12-31T16:30:00"/>
+        <x:d v="1899-12-30T16:30:00"/>
+        <x:m/>
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="DateTime with num">
-      <x:sharedItems containsDate="1" containsString="0" containsMixedTypes="1" containsNumber="1" minValue="0.1" maxValue="45000" minDate="1899-12-31T16:30:00" maxDate="2020-12-24T00:00:00" count="6">
-        <x:d v="1900-01-01T00:00:00"/>
-        <x:d v="1900-01-01T12:30:00"/>
+      <x:sharedItems containsDate="1" containsString="0" containsBlank="1" containsMixedTypes="1" minDate="1899-12-30T02:24:00" maxDate="2023-03-15T00:00:00" count="6">
+        <x:d v="1899-12-31T00:00:00"/>
+        <x:d v="1899-12-31T12:30:00"/>
         <x:d v="2020-12-24T00:00:00"/>
-        <x:d v="1899-12-31T16:30:00"/>
+        <x:d v="1899-12-30T16:30:00"/>
         <x:n v="0.1"/>
         <x:n v="45000"/>
+        <x:m/>
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Errors">
-      <x:sharedItems containsString="0" containsBlank="1" containsMixedTypes="1" count="3">
+      <x:sharedItems containsBlank="1" count="3">
         <x:e v="#DIV/0!"/>
         <x:e v="#REF!"/>
         <x:e v="#N/A"/>
@@ -264,14 +270,15 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Mixed Types">
-      <x:sharedItems containsDate="1" containsMixedTypes="1" containsNumber="1" minValue="10" maxValue="14.5" minDate="2020-08-10T00:00:00" maxDate="2020-08-10T00:00:00" count="7">
+      <x:sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="1899-12-30T16:30:00" maxDate="2020-08-10T00:00:00" count="7">
         <x:b v="1"/>
         <x:n v="14.5"/>
         <x:n v="10"/>
         <x:s v="ABC"/>
         <x:e v="#DIV/0!"/>
         <x:d v="2020-08-10T00:00:00"/>
-        <x:d v="1899-12-31T16:30:00"/>
+        <x:d v="1899-12-30T16:30:00"/>
+        <x:m/>
       </x:sharedItems>
     </x:cacheField>
   </x:cacheFields>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VariousDataTypesInTableColumns/output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VariousDataTypesInTableColumns/output.xlsx
@@ -211,58 +211,60 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Only blanks">
-      <x:sharedItems containsBlank="1"/>
+      <x:sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <x:m/>
+      </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Numbers with integers">
-      <x:sharedItems containsSemiMixedTypes="1" containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="2">
+      <x:sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="3">
         <x:n v="0"/>
         <x:n v="1"/>
         <x:m/>
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Numers without integers">
-      <x:sharedItems containsSemiMixedTypes="1" containsString="0" containsBlank="1" containsNumber="1" minValue="0.5" maxValue="14.4" count="2">
+      <x:sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.5" maxValue="14.4" count="3">
         <x:n v="0.5"/>
         <x:n v="14.4"/>
         <x:m/>
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Text">
-      <x:sharedItems containsBlank="1" count="2">
+      <x:sharedItems containsBlank="1" count="3">
         <x:s v="ABC"/>
         <x:s v="def"/>
         <x:m/>
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Text with long text">
-      <x:sharedItems containsBlank="1" count="2" longText="1">
+      <x:sharedItems containsBlank="1" count="3" longText="1">
         <x:s v="ABC"/>
         <x:s v="abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyz"/>
         <x:m/>
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="DateTime">
-      <x:sharedItems containsSemiMixedTypes="1" containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T16:30:00" maxDate="2020-12-24T00:00:00" count="4">
-        <x:d v="1899-12-31T00:00:00"/>
-        <x:d v="1899-12-31T12:30:00"/>
+      <x:sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T07:30:00" maxDate="2020-12-24T00:00:00" count="5">
+        <x:d v="1899-12-30T00:00:00"/>
+        <x:d v="1899-12-30T12:30:00"/>
         <x:d v="2020-12-24T00:00:00"/>
-        <x:d v="1899-12-30T16:30:00"/>
+        <x:d v="1899-12-30T07:30:00"/>
         <x:m/>
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="DateTime with num">
-      <x:sharedItems containsDate="1" containsString="0" containsBlank="1" containsMixedTypes="1" minDate="1899-12-30T02:24:00" maxDate="2023-03-15T00:00:00" count="6">
-        <x:d v="1899-12-31T00:00:00"/>
-        <x:d v="1899-12-31T12:30:00"/>
+      <x:sharedItems containsDate="1" containsString="0" containsBlank="1" containsMixedTypes="1" minDate="1899-12-30T07:30:00" maxDate="2023-03-15T00:00:00" count="7">
+        <x:d v="1899-12-30T00:00:00"/>
+        <x:d v="1899-12-30T12:30:00"/>
         <x:d v="2020-12-24T00:00:00"/>
-        <x:d v="1899-12-30T16:30:00"/>
+        <x:d v="1899-12-30T07:30:00"/>
         <x:n v="0.1"/>
         <x:n v="45000"/>
         <x:m/>
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Errors">
-      <x:sharedItems containsBlank="1" count="3">
+      <x:sharedItems containsBlank="1" count="4">
         <x:e v="#DIV/0!"/>
         <x:e v="#REF!"/>
         <x:e v="#N/A"/>
@@ -270,15 +272,15 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Mixed Types">
-      <x:sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="1899-12-30T16:30:00" maxDate="2020-08-10T00:00:00" count="7">
+      <x:sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="1899-12-30T07:30:00" maxDate="2020-08-10T00:00:00" count="8">
+        <x:m/>
         <x:b v="1"/>
         <x:n v="14.5"/>
         <x:n v="10"/>
         <x:s v="ABC"/>
         <x:e v="#DIV/0!"/>
         <x:d v="2020-08-10T00:00:00"/>
-        <x:d v="1899-12-30T16:30:00"/>
-        <x:m/>
+        <x:d v="1899-12-30T07:30:00"/>
       </x:sharedItems>
     </x:cacheField>
   </x:cacheFields>
@@ -305,39 +307,66 @@
       </x:items>
     </x:pivotField>
     <x:pivotField name="Only blanks" axis="axisRow" showAll="0">
-      <x:items count="1">
+      <x:items count="2">
+        <x:item x="0"/>
         <x:item t="default"/>
       </x:items>
     </x:pivotField>
     <x:pivotField name="Numbers with integers" axis="axisRow" showAll="0">
-      <x:items count="3">
+      <x:items count="4">
         <x:item x="0"/>
         <x:item x="1"/>
+        <x:item x="2"/>
         <x:item t="default"/>
       </x:items>
     </x:pivotField>
     <x:pivotField name="Numers without integers" axis="axisRow" showAll="0">
-      <x:items count="3">
+      <x:items count="4">
         <x:item x="0"/>
         <x:item x="1"/>
+        <x:item x="2"/>
         <x:item t="default"/>
       </x:items>
     </x:pivotField>
     <x:pivotField name="Text" axis="axisRow" showAll="0">
-      <x:items count="3">
+      <x:items count="4">
         <x:item x="0"/>
         <x:item x="1"/>
+        <x:item x="2"/>
         <x:item t="default"/>
       </x:items>
     </x:pivotField>
     <x:pivotField name="Text with long text" axis="axisRow" showAll="0">
-      <x:items count="3">
+      <x:items count="4">
         <x:item x="0"/>
         <x:item x="1"/>
+        <x:item x="2"/>
         <x:item t="default"/>
       </x:items>
     </x:pivotField>
     <x:pivotField name="DateTime" axis="axisCol" showAll="0">
+      <x:items count="6">
+        <x:item x="0"/>
+        <x:item x="1"/>
+        <x:item x="2"/>
+        <x:item x="3"/>
+        <x:item x="4"/>
+        <x:item t="default"/>
+      </x:items>
+    </x:pivotField>
+    <x:pivotField name="DateTime with num" axis="axisCol" showAll="0">
+      <x:items count="8">
+        <x:item x="0"/>
+        <x:item x="1"/>
+        <x:item x="2"/>
+        <x:item x="3"/>
+        <x:item x="4"/>
+        <x:item x="5"/>
+        <x:item x="6"/>
+        <x:item t="default"/>
+      </x:items>
+    </x:pivotField>
+    <x:pivotField name="Errors" axis="axisCol" showAll="0">
       <x:items count="5">
         <x:item x="0"/>
         <x:item x="1"/>
@@ -346,27 +375,8 @@
         <x:item t="default"/>
       </x:items>
     </x:pivotField>
-    <x:pivotField name="DateTime with num" axis="axisCol" showAll="0">
-      <x:items count="7">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-        <x:item x="4"/>
-        <x:item x="5"/>
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Errors" axis="axisCol" showAll="0">
-      <x:items count="4">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
     <x:pivotField name="Mixed Types" axis="axisCol" showAll="0">
-      <x:items count="8">
+      <x:items count="9">
         <x:item x="0"/>
         <x:item x="1"/>
         <x:item x="2"/>
@@ -374,6 +384,7 @@
         <x:item x="4"/>
         <x:item x="5"/>
         <x:item x="6"/>
+        <x:item x="7"/>
         <x:item t="default"/>
       </x:items>
     </x:pivotField>
@@ -386,14 +397,16 @@
     <x:field x="4"/>
     <x:field x="5"/>
   </x:rowFields>
-  <x:rowItems count="16">
+  <x:rowItems count="20">
     <x:i>
       <x:x v="0"/>
     </x:i>
     <x:i t="grand">
       <x:x/>
     </x:i>
-    <x:i/>
+    <x:i>
+      <x:x v="0"/>
+    </x:i>
     <x:i t="grand">
       <x:x/>
     </x:i>
@@ -403,6 +416,9 @@
     <x:i>
       <x:x v="1"/>
     </x:i>
+    <x:i>
+      <x:x v="2"/>
+    </x:i>
     <x:i t="grand">
       <x:x/>
     </x:i>
@@ -412,6 +428,9 @@
     <x:i>
       <x:x v="1"/>
     </x:i>
+    <x:i>
+      <x:x v="2"/>
+    </x:i>
     <x:i t="grand">
       <x:x/>
     </x:i>
@@ -421,6 +440,9 @@
     <x:i>
       <x:x v="1"/>
     </x:i>
+    <x:i>
+      <x:x v="2"/>
+    </x:i>
     <x:i t="grand">
       <x:x/>
     </x:i>
@@ -429,6 +451,9 @@
     </x:i>
     <x:i>
       <x:x v="1"/>
+    </x:i>
+    <x:i>
+      <x:x v="2"/>
     </x:i>
     <x:i t="grand">
       <x:x/>
@@ -440,7 +465,7 @@
     <x:field x="9"/>
     <x:field x="8"/>
   </x:colFields>
-  <x:colItems count="24">
+  <x:colItems count="28">
     <x:i>
       <x:x v="0"/>
     </x:i>
@@ -452,6 +477,9 @@
     </x:i>
     <x:i>
       <x:x v="3"/>
+    </x:i>
+    <x:i>
+      <x:x v="4"/>
     </x:i>
     <x:i t="grand">
       <x:x/>
@@ -474,6 +502,9 @@
     <x:i>
       <x:x v="5"/>
     </x:i>
+    <x:i>
+      <x:x v="6"/>
+    </x:i>
     <x:i t="grand">
       <x:x/>
     </x:i>
@@ -486,6 +517,9 @@
     <x:i>
       <x:x v="2"/>
     </x:i>
+    <x:i>
+      <x:x v="3"/>
+    </x:i>
     <x:i t="grand">
       <x:x/>
     </x:i>
@@ -509,6 +543,9 @@
     </x:i>
     <x:i>
       <x:x v="6"/>
+    </x:i>
+    <x:i>
+      <x:x v="7"/>
     </x:i>
     <x:i t="grand">
       <x:x/>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VariousDataTypesInTableColumns/output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VariousDataTypesInTableColumns/output.xlsx
@@ -244,20 +244,20 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="DateTime">
-      <x:sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T07:30:00" maxDate="2020-12-24T00:00:00" count="5">
-        <x:d v="1899-12-30T00:00:00"/>
-        <x:d v="1899-12-30T12:30:00"/>
+      <x:sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T16:30:00" maxDate="2020-12-25T00:00:00" count="5">
+        <x:d v="1899-12-31T00:00:00"/>
+        <x:d v="1899-12-31T12:30:00"/>
         <x:d v="2020-12-24T00:00:00"/>
-        <x:d v="1899-12-30T07:30:00"/>
+        <x:d v="1899-12-30T16:30:00"/>
         <x:m/>
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="DateTime with num">
-      <x:sharedItems containsDate="1" containsString="0" containsBlank="1" containsMixedTypes="1" minDate="1899-12-30T07:30:00" maxDate="2023-03-15T00:00:00" count="7">
-        <x:d v="1899-12-30T00:00:00"/>
-        <x:d v="1899-12-30T12:30:00"/>
+      <x:sharedItems containsDate="1" containsString="0" containsBlank="1" containsMixedTypes="1" minDate="1899-12-30T02:24:00" maxDate="2023-03-15T00:00:00" count="7">
+        <x:d v="1899-12-31T00:00:00"/>
+        <x:d v="1899-12-31T12:30:00"/>
         <x:d v="2020-12-24T00:00:00"/>
-        <x:d v="1899-12-30T07:30:00"/>
+        <x:d v="1899-12-30T16:30:00"/>
         <x:n v="0.1"/>
         <x:n v="45000"/>
         <x:m/>
@@ -272,7 +272,7 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Mixed Types">
-      <x:sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="1899-12-30T07:30:00" maxDate="2020-08-10T00:00:00" count="8">
+      <x:sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="1899-12-30T16:30:00" maxDate="2020-08-11T00:00:00" count="8">
         <x:m/>
         <x:b v="1"/>
         <x:n v="14.5"/>
@@ -280,7 +280,7 @@
         <x:s v="ABC"/>
         <x:e v="#DIV/0!"/>
         <x:d v="2020-08-10T00:00:00"/>
-        <x:d v="1899-12-30T07:30:00"/>
+        <x:d v="1899-12-30T16:30:00"/>
       </x:sharedItems>
     </x:cacheField>
   </x:cacheFields>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VariousDataTypesInTableColumns/output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VariousDataTypesInTableColumns/output.xlsx
@@ -293,7 +293,128 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="xr">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="7"/>
+  </r>
+</pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VariousDataTypesInTableColumns/output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/VariousDataTypesInTableColumns/output.xlsx
@@ -418,267 +418,289 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" indent="0" multipleFieldFilters="0">
-  <x:location ref="A3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <x:pivotFields count="10">
-    <x:pivotField name="Name" axis="axisRow" showAll="0">
-      <x:items count="2">
-        <x:item x="0"/>
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Only blanks" axis="axisRow" showAll="0">
-      <x:items count="2">
-        <x:item x="0"/>
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Numbers with integers" axis="axisRow" showAll="0">
-      <x:items count="4">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Numers without integers" axis="axisRow" showAll="0">
-      <x:items count="4">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Text" axis="axisRow" showAll="0">
-      <x:items count="4">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Text with long text" axis="axisRow" showAll="0">
-      <x:items count="4">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="DateTime" axis="axisCol" showAll="0">
-      <x:items count="6">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-        <x:item x="4"/>
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="DateTime with num" axis="axisCol" showAll="0">
-      <x:items count="8">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-        <x:item x="4"/>
-        <x:item x="5"/>
-        <x:item x="6"/>
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Errors" axis="axisCol" showAll="0">
-      <x:items count="5">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Mixed Types" axis="axisCol" showAll="0">
-      <x:items count="9">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-        <x:item x="4"/>
-        <x:item x="5"/>
-        <x:item x="6"/>
-        <x:item x="7"/>
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-  </x:pivotFields>
-  <x:rowFields count="6">
-    <x:field x="0"/>
-    <x:field x="1"/>
-    <x:field x="2"/>
-    <x:field x="3"/>
-    <x:field x="4"/>
-    <x:field x="5"/>
-  </x:rowFields>
-  <x:rowItems count="20">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:rowItems>
-  <x:colFields count="4">
-    <x:field x="6"/>
-    <x:field x="7"/>
-    <x:field x="9"/>
-    <x:field x="8"/>
-  </x:colFields>
-  <x:colItems count="28">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i>
-      <x:x v="4"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i>
-      <x:x v="4"/>
-    </x:i>
-    <x:i>
-      <x:x v="5"/>
-    </x:i>
-    <x:i>
-      <x:x v="6"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i>
-      <x:x v="4"/>
-    </x:i>
-    <x:i>
-      <x:x v="5"/>
-    </x:i>
-    <x:i>
-      <x:x v="6"/>
-    </x:i>
-    <x:i>
-      <x:x v="7"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:colItems>
-  <x:pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" enableEdit="0" hideValuesRow="1"/>
-    </x:ext>
-  </x:extLst>
-</x:pivotTableDefinition>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:AG23" firstHeaderRow="1" firstDataRow="5" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="8">
+        <item x="4"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="9">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="6">
+    <field x="0"/>
+    <field x="1"/>
+    <field x="2"/>
+    <field x="3"/>
+    <field x="4"/>
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="16">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="4">
+      <x/>
+    </i>
+    <i r="5">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="4">
+      <x/>
+    </i>
+    <i r="5">
+      <x/>
+    </i>
+    <i r="4">
+      <x v="1"/>
+    </i>
+    <i r="5">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="4">
+      <x v="2"/>
+    </i>
+    <i r="5">
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colFields count="4">
+    <field x="6"/>
+    <field x="7"/>
+    <field x="9"/>
+    <field x="8"/>
+  </colFields>
+  <colItems count="32">
+    <i>
+      <x/>
+      <x v="2"/>
+      <x/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+      <x/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="default" r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x v="3"/>
+      <x v="7"/>
+      <x v="2"/>
+    </i>
+    <i t="default" r="2">
+      <x v="7"/>
+    </i>
+    <i t="default" r="1">
+      <x v="3"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="4"/>
+      <x v="3"/>
+      <x v="2"/>
+    </i>
+    <i t="default" r="2">
+      <x v="3"/>
+    </i>
+    <i t="default" r="1">
+      <x v="4"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="5"/>
+      <x v="3"/>
+      <x v="1"/>
+    </i>
+    <i t="default" r="2">
+      <x v="3"/>
+    </i>
+    <i t="default" r="1">
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x/>
+      <x v="2"/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="2">
+      <x v="2"/>
+    </i>
+    <i t="default" r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+      <x v="2"/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="2">
+      <x v="2"/>
+    </i>
+    <i t="default" r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+      <x v="4"/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="2">
+      <x v="6"/>
+    </i>
+    <i t="default" r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition enableEdit="0" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
